--- a/ResnsCounter/laiks.xlsx
+++ b/ResnsCounter/laiks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>2: 00</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>8: 00</t>
+  </si>
+  <si>
+    <t>14: 00</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -547,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -555,6 +558,14 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
     </row>

--- a/ResnsCounter/laiks.xlsx
+++ b/ResnsCounter/laiks.xlsx
@@ -14,57 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>2: 00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>12: 00</t>
   </si>
   <si>
-    <t>15: 00</t>
-  </si>
-  <si>
-    <t>16: 00</t>
+    <t>22: 00</t>
+  </si>
+  <si>
+    <t>19: 00</t>
+  </si>
+  <si>
+    <t>7: 00</t>
+  </si>
+  <si>
+    <t>6: 00</t>
+  </si>
+  <si>
+    <t>4: 00</t>
+  </si>
+  <si>
+    <t>3: 00</t>
+  </si>
+  <si>
+    <t>1: 00</t>
+  </si>
+  <si>
+    <t>14: 00</t>
   </si>
   <si>
     <t>17: 00</t>
   </si>
   <si>
-    <t>19: 00</t>
+    <t>18: 00</t>
+  </si>
+  <si>
+    <t>24: 00</t>
   </si>
   <si>
     <t>20: 00</t>
   </si>
   <si>
-    <t>4: 00</t>
-  </si>
-  <si>
-    <t>1: 00</t>
-  </si>
-  <si>
-    <t>22: 00</t>
-  </si>
-  <si>
-    <t>24: 00</t>
-  </si>
-  <si>
-    <t>5: 00</t>
+    <t>9: 00</t>
+  </si>
+  <si>
+    <t>13: 00</t>
   </si>
   <si>
     <t>10: 00</t>
-  </si>
-  <si>
-    <t>23: 00</t>
-  </si>
-  <si>
-    <t>18: 00</t>
-  </si>
-  <si>
-    <t>8: 00</t>
-  </si>
-  <si>
-    <t>14: 00</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -478,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -542,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -550,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -558,14 +555,6 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
         <v>1</v>
       </c>
     </row>
